--- a/Data/organizeEvents/sourceNames.xlsx
+++ b/Data/organizeEvents/sourceNames.xlsx
@@ -1,266 +1,264 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp4mp\PythonProjects\Anastomotic-Leak-Prediction\Data\organizeEvents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
   <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>sourceName</t>
   </si>
   <si>
+    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_דיווח סיעודי-טקסט חופשי</t>
+  </si>
+  <si>
+    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_מהלך המודיאליזה thru opsc-adapter</t>
+  </si>
+  <si>
+    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_פירוט לטיפול פרוצדורה thru opsc-adapter</t>
+  </si>
+  <si>
+    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_הערות לשינוי תנוחה</t>
+  </si>
+  <si>
+    <t>U2I_[MIRROR_Chameleon].[Description]_הערות</t>
+  </si>
+  <si>
+    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_קבלה רפואית-בדיקה פיזיקלית-בטן</t>
+  </si>
+  <si>
+    <t>U2I_[MIRROR_Chameleon].[Description]_ביקורת thru opsc-adapter</t>
+  </si>
+  <si>
+    <t>U2I_[MIRROR_Chameleon].[Description]_המלצות תזונתיות</t>
+  </si>
+  <si>
+    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_קבלה רפואית-בדיקה פיזיקלית-ראש וצוואר thru opsc-adapter</t>
+  </si>
+  <si>
+    <t>U2I_[MIRROR_Chameleon].[Description]_בדיקות אחרות thru opsc-adapter</t>
+  </si>
+  <si>
+    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_תיאור הבדיקה</t>
+  </si>
+  <si>
     <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_קבלה רפואית-בדיקה פיזיקלית-אחר-לב וצוואר thru opsc-adapter</t>
   </si>
   <si>
+    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_תיאור הבדיקה thru opsc-adapter</t>
+  </si>
+  <si>
+    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_קבלת משמרת הערות</t>
+  </si>
+  <si>
+    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_קבלה רפואית-בדיקה פיזיקלית-ראש וצוואר</t>
+  </si>
+  <si>
+    <t>U2I_[MIRROR_Chameleon].[Description]_המלצות חינוך thru opsc-adapter</t>
+  </si>
+  <si>
+    <t>U2I_[MIRROR_Chameleon].[Description]_המלצות</t>
+  </si>
+  <si>
+    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_קבלה רפואית-בדיקה פיזיקלית-אחר-גפיים thru opsc-adapter</t>
+  </si>
+  <si>
     <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_קבלה רפואית- צילומים:(חזה.אגן.עמש צווארי)</t>
   </si>
   <si>
-    <t>U2I_[MIRROR_Chameleon].[Description]_ביקורת thru opsc-adapter</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_תיאור הבדיקה thru opsc-adapter</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_קבלה רפואית-בדיקה פיזיקלית-ראש וצוואר thru opsc-adapter</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Chameleon].[Description]_בדיקות אחרות thru opsc-adapter</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Chameleon].[Description]_המלצות</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_פירוט לטיפול פרוצדורה thru opsc-adapter</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_קבלה רפואית-בדיקה פיזיקלית-אחר-גפיים thru opsc-adapter</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_קבלה רפואית-בדיקה פיזיקלית-בטן</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Chameleon].[Description]_המלצות תזונתיות</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_תיאור הבדיקה</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_קבלה רפואית-בדיקה פיזיקלית-ראש וצוואר</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Chameleon].[Description]_הערות</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_קבלת משמרת הערות</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_הערות לשינוי תנוחה</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_דיווח סיעודי-טקסט חופשי</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_מהלך המודיאליזה thru opsc-adapter</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Chameleon].[Description]_המלצות חינוך thru opsc-adapter</t>
-  </si>
-  <si>
     <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_תיאור חופשי-פצע ניתוח</t>
   </si>
   <si>
+    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_טיפול בפצע ניתוח</t>
+  </si>
+  <si>
+    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_יעדים מדידים אחות</t>
+  </si>
+  <si>
+    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_סיכום קבלה סיעודית</t>
+  </si>
+  <si>
+    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_קבלה רפואית- צילומים:(חזה.אגן.עמש צווארי) thru opsc-adapter</t>
+  </si>
+  <si>
+    <t>U2I_[MIRROR_Chameleon].[Description]_פעולות thru opsc-adapter</t>
+  </si>
+  <si>
+    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_קבלה רפואית-בעיות רקע</t>
+  </si>
+  <si>
+    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_דיווח סיעודי-GASTRO*</t>
+  </si>
+  <si>
+    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_טיפול בפצע ניתוח thru opsc-adapter</t>
+  </si>
+  <si>
+    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_שלמות העור פירוט thru opsc-adapter</t>
+  </si>
+  <si>
+    <t>U2I_[MIRROR_Chameleon].[Description]_ביקורת</t>
+  </si>
+  <si>
+    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_קבלה רפואית-מצב הכרה-אחר thru opsc-adapter</t>
+  </si>
+  <si>
+    <t>U2I_[MIRROR_Chameleon].[Description]_תיאור האירוע thru opsc-adapter</t>
+  </si>
+  <si>
+    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_מחלות רקע.</t>
+  </si>
+  <si>
+    <t>U2I_[MIRROR_Chameleon].[Description]_סימפטומים פעילים thru opsc-adapter</t>
+  </si>
+  <si>
+    <t>U2I_[MIRROR_Chameleon].[Description]_תפקוד</t>
+  </si>
+  <si>
     <t>U2I_[MIRROR_Chameleon].[Description]_סיכום מיילדת לאחר לידה thru opsc-adapter</t>
   </si>
   <si>
-    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_קבלה רפואית-מצב הכרה-אחר thru opsc-adapter</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_קבלה רפואית-בעיות רקע</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Chameleon].[Description]_תיאור האירוע thru opsc-adapter</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_טיפול בפצע ניתוח thru opsc-adapter</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Chameleon].[Description]_פעולות thru opsc-adapter</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_טיפול בפצע ניתוח</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Chameleon].[Description]_תפקוד</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Chameleon].[Description]_סימפטומים פעילים thru opsc-adapter</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Chameleon].[Description]_ביקורת</t>
+    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_סיבה לבדיקה - אחר</t>
+  </si>
+  <si>
+    <t>U2I_[MIRROR_Chameleon].[Description]_תפקוד thru opsc-adapter</t>
+  </si>
+  <si>
+    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_יעוצים אחרים thru opsc-adapter</t>
   </si>
   <si>
     <t>U2I_[MIRROR_Chameleon].[Description]_תלונה עקרית thru opsc-adapter</t>
   </si>
   <si>
-    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_דיווח סיעודי-GASTRO*</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_סיבה לבדיקה - אחר</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_יעוצים אחרים thru opsc-adapter</t>
-  </si>
-  <si>
     <t>U2I_[MIRROR_Chameleon].[Description]_מעקב פיזיקלי thru opsc-adapter</t>
   </si>
   <si>
-    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_יעדים מדידים אחות</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_שלמות העור פירוט thru opsc-adapter</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_קבלה רפואית- צילומים:(חזה.אגן.עמש צווארי) thru opsc-adapter</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Chameleon].[Description]_תפקוד thru opsc-adapter</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_סיכום קבלה סיעודית</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_מחלות רקע.</t>
+    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_קבלה רפואית-בדיקה פיזיקלית-מע' השתן-אחר</t>
+  </si>
+  <si>
+    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_הערות לאשפוז thru opsc-adapter</t>
   </si>
   <si>
     <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_דיווח סיעודי-Respiratory*</t>
   </si>
   <si>
+    <t>U2I_[MIRROR_Chameleon].[Description]_בדיקות וממצאים</t>
+  </si>
+  <si>
+    <t>U2I_[MIRROR_Chameleon].[Description]_מחלות דם פריפריות thru opsc-adapter</t>
+  </si>
+  <si>
     <t>U2I_[MIRROR_Chameleon].[Description]_סיכום והמלצות thru opsc-adapter</t>
   </si>
   <si>
-    <t>U2I_[MIRROR_Chameleon].[Description]_בדיקות וממצאים</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_קבלה רפואית-בדיקה פיזיקלית-מע' השתן-אחר</t>
+    <t>U2I_[MIRROR_Chameleon].[Description]_סיבת הפנייה</t>
   </si>
   <si>
     <t>U2I_[MIRROR_Chameleon].[Description]_סיבת אשפוז מפורטת סיעודית</t>
   </si>
   <si>
-    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_הערות לאשפוז thru opsc-adapter</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Chameleon].[Description]_סיבת הפנייה</t>
+    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_תיאור חופשי-פצע לחץ thru opsc-adapter</t>
+  </si>
+  <si>
+    <t>U2I_[MIRROR_Chameleon].[Description]_בדיקות אחרות</t>
   </si>
   <si>
     <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_דוח ניתוח- שם הניתוח thru opsc-adapter</t>
   </si>
   <si>
-    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_תיאור חופשי-פצע לחץ thru opsc-adapter</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Chameleon].[Description]_בדיקות אחרות</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Chameleon].[Description]_מחלות דם פריפריות thru opsc-adapter</t>
+    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_הערות לאשפוז</t>
+  </si>
+  <si>
+    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_קבלה רפואית-בדיקה פיזיקלית-בטן thru opsc-adapter</t>
+  </si>
+  <si>
+    <t>U2I_[MIRROR_Chameleon].[Description]_פרטים נוספים פיזיו thru opsc-adapter</t>
   </si>
   <si>
     <t>U2I_[MIRROR_Chameleon].[Description]_היסטוריה רפואית</t>
   </si>
   <si>
+    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_דיווח סיעודי-Neuro* thru opsc-adapter</t>
+  </si>
+  <si>
+    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_דוח ניתוח-סיכום דוח הניתוח</t>
+  </si>
+  <si>
+    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_דיווח סיעודי-Hemodinamic* thru opsc-adapter</t>
+  </si>
+  <si>
+    <t>U2I_[MIRROR_Chameleon].[Description]_המלצות תזונתיות thru opsc-adapter</t>
+  </si>
+  <si>
+    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_דיווח סיעודי-Urinary*</t>
+  </si>
+  <si>
+    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_קבלה רפואית- ניתוחים אחרים בעבר</t>
+  </si>
+  <si>
+    <t>U2I_[MIRROR_Chameleon].[Description]_סיכום מיילדת לאחר לידה</t>
+  </si>
+  <si>
+    <t>U2I_[MIRROR_Chameleon].[Description]_תלונה עקרית</t>
+  </si>
+  <si>
     <t>U2I_[MIRROR_Chameleon].[Description]_סיבת הפניה / ביקור</t>
   </si>
   <si>
-    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_קבלה רפואית- ניתוחים אחרים בעבר</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_דיווח סיעודי-Neuro* thru opsc-adapter</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Chameleon].[Description]_סיכום מיילדת לאחר לידה</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Chameleon].[Description]_תלונה עקרית</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_הערות לאשפוז</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Chameleon].[Description]_המלצות תזונתיות thru opsc-adapter</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Chameleon].[Description]_פרטים נוספים פיזיו thru opsc-adapter</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_קבלה רפואית-בדיקה פיזיקלית-בטן thru opsc-adapter</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_דוח ניתוח-סיכום דוח הניתוח</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_דיווח סיעודי-Urinary*</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_דיווח סיעודי-Hemodinamic* thru opsc-adapter</t>
-  </si>
-  <si>
     <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_יעוץ כירורג כלי דם</t>
   </si>
   <si>
+    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_דיווח סיעודי-טקסט חופשי thru opsc-adapter</t>
+  </si>
+  <si>
     <t>U2I_[MIRROR_Chameleon].[Description]_המלצות סיעודיות</t>
   </si>
   <si>
-    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_דיווח סיעודי-טקסט חופשי thru opsc-adapter</t>
-  </si>
-  <si>
     <t>U2I_[MIRROR_Chameleon].[Description]_המלצות לטיפול</t>
   </si>
   <si>
     <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_תיאור חופשי-פצע ניתוח thru opsc-adapter</t>
   </si>
   <si>
+    <t>U2I_[MIRROR_Chameleon].[Description]_הערות טיפול thru opsc-adapter</t>
+  </si>
+  <si>
+    <t>U2I_[MIRROR_Chameleon].[Description]_המלצות בביקור thru opsc-adapter</t>
+  </si>
+  <si>
     <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_קבלה רפואית-בדיקה פיזיקלית-מע' השתן-אחר thru opsc-adapter</t>
   </si>
   <si>
-    <t>U2I_[MIRROR_Chameleon].[Description]_הערות טיפול thru opsc-adapter</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Chameleon].[Description]_המלצות בביקור thru opsc-adapter</t>
+    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_קבלה רפואית-אבחנות בקבלה</t>
   </si>
   <si>
     <t>U2I_[MIRROR_Chameleon].[Description]_המלצות אורטופד thru opsc-adapter</t>
   </si>
   <si>
-    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_קבלה רפואית-אבחנות בקבלה</t>
-  </si>
-  <si>
     <t>U2I_[MIRROR_Chameleon].[Description]_סימפטומים פעילים</t>
   </si>
   <si>
+    <t>U2I_[MIRROR_Chameleon].[Description]_המלצות thru opsc-adapter</t>
+  </si>
+  <si>
+    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_דיווח סיעודי-Neuro*</t>
+  </si>
+  <si>
     <t>U2I_[MIRROR_Chameleon].[Description]_אבחנה פסיכוסוציאלית</t>
   </si>
   <si>
-    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_דיווח סיעודי-Neuro*</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Chameleon].[Description]_המלצות thru opsc-adapter</t>
-  </si>
-  <si>
     <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_מהלך המודיאליזה</t>
   </si>
   <si>
@@ -270,36 +268,36 @@
     <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_תלונה עיקרית</t>
   </si>
   <si>
+    <t>U2I_[MIRROR_Chameleon].[Description]_המלצות סיעודיות thru opsc-adapter</t>
+  </si>
+  <si>
+    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_יעדים מדידים אחות thru opsc-adapter</t>
+  </si>
+  <si>
     <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_קבלה רפואית-בדיקה פיזיקלית-אחר-מערכת הנשימה thru opsc-adapter</t>
   </si>
   <si>
+    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_קבלה רפואית-בדיקה פיזיקלית-אחר-מערכת הנשימה</t>
+  </si>
+  <si>
     <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_סיבת אשפוז :</t>
   </si>
   <si>
-    <t>U2I_[MIRROR_Chameleon].[Description]_המלצות סיעודיות thru opsc-adapter</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_יעדים מדידים אחות thru opsc-adapter</t>
-  </si>
-  <si>
-    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_קבלה רפואית-בדיקה פיזיקלית-אחר-מערכת הנשימה</t>
+    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_קבלה רפואית-מדדי נשימה</t>
   </si>
   <si>
     <t>U2I_[MIRROR_Chameleon].[Description]_המלצות סקר שנתי thru opsc-adapter</t>
   </si>
   <si>
-    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_קבלה רפואית-מדדי נשימה</t>
-  </si>
-  <si>
     <t>U2I_[MIRROR_Chameleon].[Description]_אבחנה פסיכוסוציאלית thru opsc-adapter</t>
   </si>
   <si>
+    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_קבלה רפואית-אבחנות רקע בקבלה</t>
+  </si>
+  <si>
     <t>U2I_[MIRROR_Chameleon].[Description]_בדיקות עזר thru opsc-adapter</t>
   </si>
   <si>
-    <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_קבלה רפואית-אבחנות רקע בקבלה</t>
-  </si>
-  <si>
     <t>U2I_[MIRROR_Chameleon].[Description]_אבחנות thru opsc-adapter</t>
   </si>
   <si>
@@ -330,12 +328,12 @@
     <t>U2I_[MIRROR_Chameleon].[Description]_מהלך ניתוח thru opsc-adapter</t>
   </si>
   <si>
+    <t>U2I_[MIRROR_Chameleon].[Description]_טיפולים</t>
+  </si>
+  <si>
     <t>U2I_[MIRROR_Sheba_ICU].[MVQFreeTextSignalsView]_תלונה עיקרית thru opsc-adapter</t>
   </si>
   <si>
-    <t>U2I_[MIRROR_Chameleon].[Description]_טיפולים</t>
-  </si>
-  <si>
     <t>U2I_[MIRROR_Chameleon].[Description]_מהלך ניתוח</t>
   </si>
   <si>
@@ -580,20 +578,17 @@
   </si>
   <si>
     <t>[MIRROR_Chameleon].[Lab_Results]</t>
-  </si>
-  <si>
-    <t>count</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -601,7 +596,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -641,30 +636,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -711,7 +693,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -743,10 +725,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -778,7 +759,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -954,1509 +934,1504 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="140.25" style="3" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>12</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>13</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>14</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>15</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>16</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>17</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>18</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>18</v>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>19</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>20</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>20</v>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>21</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>21</v>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>22</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>22</v>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>23</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>23</v>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>24</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>24</v>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>25</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>25</v>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>26</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>26</v>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>27</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>27</v>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>28</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>28</v>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>29</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>29</v>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>30</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>30</v>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>31</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>31</v>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>32</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>32</v>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>33</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>33</v>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>34</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>34</v>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>35</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>35</v>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>36</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>36</v>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>37</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>37</v>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>38</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>38</v>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>39</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>39</v>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>40</v>
       </c>
       <c r="B40">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>40</v>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>41</v>
       </c>
       <c r="B41">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>41</v>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>42</v>
       </c>
       <c r="B42">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>42</v>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>43</v>
       </c>
       <c r="B43">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>43</v>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>44</v>
       </c>
       <c r="B44">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>44</v>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>45</v>
       </c>
       <c r="B45">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>45</v>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>46</v>
       </c>
       <c r="B46">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>46</v>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>47</v>
       </c>
       <c r="B47">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>47</v>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>48</v>
       </c>
       <c r="B48">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>48</v>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>49</v>
       </c>
       <c r="B49">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>49</v>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>50</v>
       </c>
       <c r="B50">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>50</v>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>51</v>
       </c>
       <c r="B51">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>51</v>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>52</v>
       </c>
       <c r="B52">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>52</v>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>53</v>
       </c>
       <c r="B53">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>53</v>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>54</v>
       </c>
       <c r="B54">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>54</v>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>55</v>
       </c>
       <c r="B55">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>55</v>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>56</v>
       </c>
       <c r="B56">
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>56</v>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>57</v>
       </c>
       <c r="B57">
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>57</v>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>58</v>
       </c>
       <c r="B58">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>58</v>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>59</v>
       </c>
       <c r="B59">
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>59</v>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>60</v>
       </c>
       <c r="B60">
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>60</v>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>61</v>
       </c>
       <c r="B61">
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>61</v>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>62</v>
       </c>
       <c r="B62">
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>62</v>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>63</v>
       </c>
       <c r="B63">
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>63</v>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>64</v>
       </c>
       <c r="B64">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>64</v>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>65</v>
       </c>
       <c r="B65">
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>65</v>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>66</v>
       </c>
       <c r="B66">
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>66</v>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>67</v>
       </c>
       <c r="B67">
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>67</v>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>68</v>
       </c>
       <c r="B68">
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>68</v>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>69</v>
       </c>
       <c r="B69">
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>69</v>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>70</v>
       </c>
       <c r="B70">
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>70</v>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>71</v>
       </c>
       <c r="B71">
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>71</v>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>72</v>
       </c>
       <c r="B72">
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>72</v>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>73</v>
       </c>
       <c r="B73">
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>73</v>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>74</v>
       </c>
       <c r="B74">
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>74</v>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>75</v>
       </c>
       <c r="B75">
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>75</v>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>76</v>
       </c>
       <c r="B76">
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>76</v>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>77</v>
       </c>
       <c r="B77">
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>77</v>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>78</v>
       </c>
       <c r="B78">
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>78</v>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>79</v>
       </c>
       <c r="B79">
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>79</v>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>80</v>
       </c>
       <c r="B80">
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>80</v>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>81</v>
       </c>
       <c r="B81">
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>81</v>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>82</v>
       </c>
       <c r="B82">
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>82</v>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>83</v>
       </c>
       <c r="B83">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>83</v>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>84</v>
       </c>
       <c r="B84">
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>84</v>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>85</v>
       </c>
       <c r="B85">
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>85</v>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>86</v>
       </c>
       <c r="B86">
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>86</v>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>87</v>
       </c>
       <c r="B87">
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
-        <v>87</v>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>88</v>
       </c>
       <c r="B88">
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
-        <v>88</v>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>89</v>
       </c>
       <c r="B89">
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
-        <v>89</v>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>90</v>
       </c>
       <c r="B90">
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
-        <v>90</v>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>91</v>
       </c>
       <c r="B91">
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
-        <v>91</v>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>92</v>
       </c>
       <c r="B92">
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
-        <v>92</v>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>93</v>
       </c>
       <c r="B93">
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
-        <v>93</v>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>94</v>
       </c>
       <c r="B94">
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
-        <v>94</v>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>95</v>
       </c>
       <c r="B95">
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
-        <v>95</v>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>96</v>
       </c>
       <c r="B96">
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
-        <v>96</v>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>97</v>
       </c>
       <c r="B97">
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
-        <v>97</v>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>98</v>
       </c>
       <c r="B98">
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
-        <v>98</v>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>99</v>
       </c>
       <c r="B99">
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
-        <v>99</v>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>100</v>
       </c>
       <c r="B100">
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
-        <v>100</v>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>101</v>
       </c>
       <c r="B101">
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
-        <v>101</v>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>102</v>
       </c>
       <c r="B102">
         <v>25</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
-        <v>102</v>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>103</v>
       </c>
       <c r="B103">
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
-        <v>103</v>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>104</v>
       </c>
       <c r="B104">
         <v>26</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
-        <v>104</v>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>105</v>
       </c>
       <c r="B105">
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
-        <v>105</v>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>106</v>
       </c>
       <c r="B106">
         <v>27</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="2" t="s">
-        <v>106</v>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>107</v>
       </c>
       <c r="B107">
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
-        <v>107</v>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>108</v>
       </c>
       <c r="B108">
         <v>29</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="s">
-        <v>108</v>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>109</v>
       </c>
       <c r="B109">
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="s">
-        <v>109</v>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>110</v>
       </c>
       <c r="B110">
         <v>32</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="s">
-        <v>110</v>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>111</v>
       </c>
       <c r="B111">
         <v>37</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="s">
-        <v>111</v>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>112</v>
       </c>
       <c r="B112">
         <v>38</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="2" t="s">
-        <v>112</v>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>113</v>
       </c>
       <c r="B113">
         <v>43</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="2" t="s">
-        <v>113</v>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>114</v>
       </c>
       <c r="B114">
         <v>46</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="2" t="s">
-        <v>114</v>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>115</v>
       </c>
       <c r="B115">
         <v>54</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="2" t="s">
-        <v>115</v>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>116</v>
       </c>
       <c r="B116">
         <v>55</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="2" t="s">
-        <v>116</v>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>117</v>
       </c>
       <c r="B117">
         <v>56</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
-        <v>117</v>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>118</v>
       </c>
       <c r="B118">
         <v>58</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="s">
-        <v>118</v>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>119</v>
       </c>
       <c r="B119">
         <v>62</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
-        <v>119</v>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>120</v>
       </c>
       <c r="B120">
         <v>69</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="2" t="s">
-        <v>120</v>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>121</v>
       </c>
       <c r="B121">
         <v>75</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="2" t="s">
-        <v>121</v>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>122</v>
       </c>
       <c r="B122">
         <v>92</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="2" t="s">
-        <v>122</v>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>123</v>
       </c>
       <c r="B123">
         <v>98</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="2" t="s">
-        <v>123</v>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>124</v>
       </c>
       <c r="B124">
         <v>101</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="s">
-        <v>124</v>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>125</v>
       </c>
       <c r="B125">
         <v>105</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="2" t="s">
-        <v>125</v>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>126</v>
       </c>
       <c r="B126">
         <v>114</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="2" t="s">
-        <v>126</v>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>127</v>
       </c>
       <c r="B127">
         <v>114</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="2" t="s">
-        <v>127</v>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>128</v>
       </c>
       <c r="B128">
         <v>116</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="2" t="s">
-        <v>128</v>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>129</v>
       </c>
       <c r="B129">
         <v>124</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="2" t="s">
-        <v>129</v>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>130</v>
       </c>
       <c r="B130">
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="2" t="s">
-        <v>130</v>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>131</v>
       </c>
       <c r="B131">
         <v>140</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="2" t="s">
-        <v>131</v>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>132</v>
       </c>
       <c r="B132">
         <v>151</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="2" t="s">
-        <v>132</v>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>133</v>
       </c>
       <c r="B133">
         <v>153</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="2" t="s">
-        <v>133</v>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>134</v>
       </c>
       <c r="B134">
         <v>156</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="2" t="s">
-        <v>134</v>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>135</v>
       </c>
       <c r="B135">
         <v>168</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="2" t="s">
-        <v>135</v>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>136</v>
       </c>
       <c r="B136">
         <v>170</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="2" t="s">
-        <v>136</v>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>137</v>
       </c>
       <c r="B137">
         <v>214</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="2" t="s">
-        <v>137</v>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>138</v>
       </c>
       <c r="B138">
         <v>226</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="2" t="s">
-        <v>138</v>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>139</v>
       </c>
       <c r="B139">
         <v>241</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="2" t="s">
-        <v>139</v>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>140</v>
       </c>
       <c r="B140">
         <v>258</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="2" t="s">
-        <v>140</v>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>141</v>
       </c>
       <c r="B141">
         <v>259</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="2" t="s">
-        <v>141</v>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>142</v>
       </c>
       <c r="B142">
         <v>270</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="2" t="s">
-        <v>142</v>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>143</v>
       </c>
       <c r="B143">
         <v>286</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="2" t="s">
-        <v>143</v>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>144</v>
       </c>
       <c r="B144">
         <v>303</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="2" t="s">
-        <v>144</v>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>145</v>
       </c>
       <c r="B145">
         <v>312</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="2" t="s">
-        <v>145</v>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>146</v>
       </c>
       <c r="B146">
         <v>319</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="2" t="s">
-        <v>146</v>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>147</v>
       </c>
       <c r="B147">
         <v>327</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" s="2" t="s">
-        <v>147</v>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>148</v>
       </c>
       <c r="B148">
         <v>364</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" s="2" t="s">
-        <v>148</v>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>149</v>
       </c>
       <c r="B149">
         <v>559</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" s="2" t="s">
-        <v>149</v>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>150</v>
       </c>
       <c r="B150">
         <v>586</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" s="2" t="s">
-        <v>150</v>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>151</v>
       </c>
       <c r="B151">
         <v>613</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="2" t="s">
-        <v>151</v>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>152</v>
       </c>
       <c r="B152">
         <v>696</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" s="2" t="s">
-        <v>152</v>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>153</v>
       </c>
       <c r="B153">
         <v>824</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" s="2" t="s">
-        <v>153</v>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>154</v>
       </c>
       <c r="B154">
         <v>898</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" s="2" t="s">
-        <v>154</v>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>155</v>
       </c>
       <c r="B155">
         <v>962</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" s="2" t="s">
-        <v>155</v>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>156</v>
       </c>
       <c r="B156">
         <v>1001</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" s="2" t="s">
-        <v>156</v>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>157</v>
       </c>
       <c r="B157">
         <v>1017</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" s="2" t="s">
-        <v>157</v>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>158</v>
       </c>
       <c r="B158">
         <v>1049</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" s="2" t="s">
-        <v>158</v>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>159</v>
       </c>
       <c r="B159">
         <v>1103</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" s="2" t="s">
-        <v>159</v>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>160</v>
       </c>
       <c r="B160">
         <v>1239</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" s="2" t="s">
-        <v>160</v>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>161</v>
       </c>
       <c r="B161">
         <v>1246</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" s="2" t="s">
-        <v>161</v>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>162</v>
       </c>
       <c r="B162">
         <v>1254</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" s="2" t="s">
-        <v>162</v>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>163</v>
       </c>
       <c r="B163">
         <v>1332</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" s="2" t="s">
-        <v>163</v>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>164</v>
       </c>
       <c r="B164">
         <v>1414</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" s="2" t="s">
-        <v>164</v>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>165</v>
       </c>
       <c r="B165">
         <v>1421</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" s="2" t="s">
-        <v>165</v>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>166</v>
       </c>
       <c r="B166">
         <v>1773</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" s="2" t="s">
-        <v>166</v>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>167</v>
       </c>
       <c r="B167">
         <v>1904</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" s="2" t="s">
-        <v>167</v>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>168</v>
       </c>
       <c r="B168">
         <v>2484</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" s="2" t="s">
-        <v>168</v>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>169</v>
       </c>
       <c r="B169">
         <v>2575</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" s="2" t="s">
-        <v>169</v>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>170</v>
       </c>
       <c r="B170">
         <v>2766</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" s="2" t="s">
-        <v>170</v>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>171</v>
       </c>
       <c r="B171">
         <v>2955</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" s="2" t="s">
-        <v>171</v>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>172</v>
       </c>
       <c r="B172">
         <v>3848</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" s="2" t="s">
-        <v>172</v>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>173</v>
       </c>
       <c r="B173">
         <v>4107</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" s="2" t="s">
-        <v>173</v>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>174</v>
       </c>
       <c r="B174">
         <v>5745</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" s="2" t="s">
-        <v>174</v>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>175</v>
       </c>
       <c r="B175">
         <v>7134</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" s="2" t="s">
-        <v>175</v>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>176</v>
       </c>
       <c r="B176">
         <v>7973</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" s="2" t="s">
-        <v>176</v>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>177</v>
       </c>
       <c r="B177">
         <v>11809</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" s="2" t="s">
-        <v>177</v>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>178</v>
       </c>
       <c r="B178">
         <v>15122</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" s="2" t="s">
-        <v>178</v>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>179</v>
       </c>
       <c r="B179">
         <v>16699</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" s="2" t="s">
-        <v>179</v>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>180</v>
       </c>
       <c r="B180">
         <v>27524</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" s="2" t="s">
-        <v>180</v>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>181</v>
       </c>
       <c r="B181">
         <v>47536</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" s="2" t="s">
-        <v>181</v>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>182</v>
       </c>
       <c r="B182">
         <v>48527</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" s="2" t="s">
-        <v>182</v>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>183</v>
       </c>
       <c r="B183">
         <v>59239</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" s="2" t="s">
-        <v>183</v>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>184</v>
       </c>
       <c r="B184">
         <v>236251</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" s="2" t="s">
-        <v>184</v>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>185</v>
       </c>
       <c r="B185">
         <v>266216</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A186" s="2" t="s">
-        <v>185</v>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>186</v>
       </c>
       <c r="B186">
         <v>375644</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187" s="2" t="s">
-        <v>186</v>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>187</v>
       </c>
       <c r="B187">
         <v>511855</v>
@@ -2464,6 +2439,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>